--- a/frontend/main-app/src/assets/Sign Up Sheet.xlsx
+++ b/frontend/main-app/src/assets/Sign Up Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berniceteo/Desktop/ESD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94F4035-AC9A-664B-8697-26FBE67AE720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78727615-BACF-4C42-BD85-F572B73E16FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{785D5B4F-1A17-194F-9366-0E792AABD538}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{785D5B4F-1A17-194F-9366-0E792AABD538}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -42,22 +42,13 @@
     <t>matricNum</t>
   </si>
   <si>
-    <t>Bernice</t>
-  </si>
-  <si>
     <t>Regine</t>
   </si>
   <si>
-    <t>Ivan</t>
+    <t>Atrayee</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alice </t>
-  </si>
-  <si>
-    <t>Bob</t>
+    <t>Xun Yi</t>
   </si>
 </sst>
 </file>
@@ -101,9 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89883317-3841-7F4E-902E-1E8F4EA6D9C1}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,52 +427,36 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1449284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1302934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1420382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1349249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1392302</v>
+      <c r="B4" s="2">
+        <v>1419345</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1324567</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1412345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1323456</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
